--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H2">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I2">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J2">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N2">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O2">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P2">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q2">
-        <v>10695.96558065835</v>
+        <v>14023.55035656474</v>
       </c>
       <c r="R2">
-        <v>96263.69022592512</v>
+        <v>126211.9532090826</v>
       </c>
       <c r="S2">
-        <v>0.3816500168436434</v>
+        <v>0.4527523858331159</v>
       </c>
       <c r="T2">
-        <v>0.3816500168436434</v>
+        <v>0.4527523858331161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H3">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I3">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J3">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O3">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P3">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q3">
-        <v>667.5554509096853</v>
+        <v>973.9343555748799</v>
       </c>
       <c r="R3">
-        <v>6007.999058187167</v>
+        <v>8765.409200173919</v>
       </c>
       <c r="S3">
-        <v>0.02381949971346727</v>
+        <v>0.03144361391514141</v>
       </c>
       <c r="T3">
-        <v>0.02381949971346727</v>
+        <v>0.03144361391514141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H4">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I4">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J4">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N4">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O4">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P4">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q4">
-        <v>710.3899576706885</v>
+        <v>2565.682461330777</v>
       </c>
       <c r="R4">
-        <v>6393.509619036196</v>
+        <v>23091.14215197699</v>
       </c>
       <c r="S4">
-        <v>0.02534790685946519</v>
+        <v>0.08283343562237867</v>
       </c>
       <c r="T4">
-        <v>0.0253479068594652</v>
+        <v>0.08283343562237867</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H5">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I5">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J5">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N5">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O5">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P5">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q5">
-        <v>4836.663791166772</v>
+        <v>5596.318543682907</v>
       </c>
       <c r="R5">
-        <v>43529.97412050095</v>
+        <v>50366.86689314617</v>
       </c>
       <c r="S5">
-        <v>0.1725802877211784</v>
+        <v>0.1806779672844004</v>
       </c>
       <c r="T5">
-        <v>0.1725802877211784</v>
+        <v>0.1806779672844005</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H6">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I6">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J6">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N6">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O6">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P6">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q6">
-        <v>135.7389292368729</v>
+        <v>216.2357562362317</v>
       </c>
       <c r="R6">
-        <v>1221.650363131856</v>
+        <v>1946.121806126085</v>
       </c>
       <c r="S6">
-        <v>0.004843392982048284</v>
+        <v>0.006981203193851137</v>
       </c>
       <c r="T6">
-        <v>0.004843392982048286</v>
+        <v>0.006981203193851137</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>228.2871476666667</v>
+        <v>333.061015</v>
       </c>
       <c r="H7">
-        <v>684.861443</v>
+        <v>999.183045</v>
       </c>
       <c r="I7">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="J7">
-        <v>0.6105798777018374</v>
+        <v>0.7594186199160268</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N7">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O7">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P7">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q7">
-        <v>65.54550145518978</v>
+        <v>146.5074343798917</v>
       </c>
       <c r="R7">
-        <v>589.909513096708</v>
+        <v>1318.566909419025</v>
       </c>
       <c r="S7">
-        <v>0.002338773582034891</v>
+        <v>0.004730014067139092</v>
       </c>
       <c r="T7">
-        <v>0.002338773582034891</v>
+        <v>0.004730014067139092</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H8">
         <v>169.980652</v>
       </c>
       <c r="I8">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J8">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N8">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O8">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P8">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q8">
-        <v>2654.708075265181</v>
+        <v>2385.681227170649</v>
       </c>
       <c r="R8">
-        <v>23892.37267738663</v>
+        <v>21471.13104453584</v>
       </c>
       <c r="S8">
-        <v>0.09472444296866846</v>
+        <v>0.07702206930309612</v>
       </c>
       <c r="T8">
-        <v>0.09472444296866848</v>
+        <v>0.07702206930309613</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H9">
         <v>169.980652</v>
       </c>
       <c r="I9">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J9">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O9">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P9">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q9">
-        <v>165.6853542443947</v>
+        <v>165.6853542443946</v>
       </c>
       <c r="R9">
         <v>1491.168188199552</v>
       </c>
       <c r="S9">
-        <v>0.005911931724281608</v>
+        <v>0.005349176030636118</v>
       </c>
       <c r="T9">
-        <v>0.005911931724281609</v>
+        <v>0.005349176030636118</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H10">
         <v>169.980652</v>
       </c>
       <c r="I10">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J10">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N10">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O10">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P10">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q10">
-        <v>176.3167563502565</v>
+        <v>436.4729563660382</v>
       </c>
       <c r="R10">
-        <v>1586.850807152308</v>
+        <v>3928.256607294344</v>
       </c>
       <c r="S10">
-        <v>0.006291278007903807</v>
+        <v>0.01409159359233518</v>
       </c>
       <c r="T10">
-        <v>0.006291278007903808</v>
+        <v>0.01409159359233518</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H11">
         <v>169.980652</v>
       </c>
       <c r="I11">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J11">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N11">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O11">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P11">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q11">
-        <v>1200.446124001348</v>
+        <v>952.0436516763663</v>
       </c>
       <c r="R11">
-        <v>10804.01511601213</v>
+        <v>8568.392865087297</v>
       </c>
       <c r="S11">
-        <v>0.04283393397165374</v>
+        <v>0.03073686932011247</v>
       </c>
       <c r="T11">
-        <v>0.04283393397165375</v>
+        <v>0.03073686932011247</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H12">
         <v>169.980652</v>
       </c>
       <c r="I12">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J12">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N12">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O12">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P12">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q12">
-        <v>33.69001413248711</v>
+        <v>36.78594729431956</v>
       </c>
       <c r="R12">
-        <v>303.210127192384</v>
+        <v>331.073525648876</v>
       </c>
       <c r="S12">
-        <v>0.001202116289938068</v>
+        <v>0.001187639718841805</v>
       </c>
       <c r="T12">
-        <v>0.001202116289938069</v>
+        <v>0.001187639718841805</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>56.66021733333334</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H13">
         <v>169.980652</v>
       </c>
       <c r="I13">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="J13">
-        <v>0.1515441798784964</v>
+        <v>0.1291920162178757</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N13">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O13">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P13">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q13">
-        <v>16.26820605379023</v>
+        <v>24.92379083428222</v>
       </c>
       <c r="R13">
-        <v>146.413854484112</v>
+        <v>224.31411750854</v>
       </c>
       <c r="S13">
-        <v>0.0005804769160506914</v>
+        <v>0.0008046682528539851</v>
       </c>
       <c r="T13">
-        <v>0.0005804769160506915</v>
+        <v>0.0008046682528539851</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H14">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I14">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J14">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N14">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O14">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P14">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q14">
-        <v>30.30578625535733</v>
+        <v>29.47632726825033</v>
       </c>
       <c r="R14">
-        <v>272.752076298216</v>
+        <v>265.286945414253</v>
       </c>
       <c r="S14">
-        <v>0.001081361355138642</v>
+        <v>0.0009516475612076908</v>
       </c>
       <c r="T14">
-        <v>0.001081361355138642</v>
+        <v>0.0009516475612076908</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H15">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I15">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J15">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O15">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P15">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q15">
-        <v>1.891441465130666</v>
+        <v>2.047128371402667</v>
       </c>
       <c r="R15">
-        <v>17.022973186176</v>
+        <v>18.424155342624</v>
       </c>
       <c r="S15">
-        <v>6.748980833775761E-05</v>
+        <v>6.609184056057124E-05</v>
       </c>
       <c r="T15">
-        <v>6.748980833775763E-05</v>
+        <v>6.609184056057124E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H16">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I16">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J16">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N16">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O16">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P16">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q16">
-        <v>2.012808105333777</v>
+        <v>5.392849454930889</v>
       </c>
       <c r="R16">
-        <v>18.115272948004</v>
+        <v>48.535645094378</v>
       </c>
       <c r="S16">
-        <v>7.182037390740885E-05</v>
+        <v>0.0001741089378279873</v>
       </c>
       <c r="T16">
-        <v>7.182037390740887E-05</v>
+        <v>0.0001741089378279873</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H17">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I17">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J17">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N17">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O17">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P17">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q17">
-        <v>13.70412964951822</v>
+        <v>11.76299244461689</v>
       </c>
       <c r="R17">
-        <v>123.337166845664</v>
+        <v>105.866932001552</v>
       </c>
       <c r="S17">
-        <v>0.0004889863633278612</v>
+        <v>0.000379769941165015</v>
       </c>
       <c r="T17">
-        <v>0.0004889863633278614</v>
+        <v>0.000379769941165015</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H18">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I18">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J18">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N18">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O18">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P18">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q18">
-        <v>0.3846006183324444</v>
+        <v>0.4545094327652223</v>
       </c>
       <c r="R18">
-        <v>3.461405564991999</v>
+        <v>4.090584894887001</v>
       </c>
       <c r="S18">
-        <v>1.372319603665164E-05</v>
+        <v>1.467390388567188E-05</v>
       </c>
       <c r="T18">
-        <v>1.372319603665165E-05</v>
+        <v>1.467390388567188E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6468253333333333</v>
+        <v>0.7000663333333333</v>
       </c>
       <c r="H19">
-        <v>1.940476</v>
+        <v>2.100199</v>
       </c>
       <c r="I19">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="J19">
-        <v>0.001730007742257072</v>
+        <v>0.001596234277703361</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N19">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O19">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P19">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q19">
-        <v>0.1857156272728889</v>
+        <v>0.3079463454838889</v>
       </c>
       <c r="R19">
-        <v>1.671440645456</v>
+        <v>2.771517109355</v>
       </c>
       <c r="S19">
-        <v>6.626645508751085E-06</v>
+        <v>9.942093056424366E-06</v>
       </c>
       <c r="T19">
-        <v>6.626645508751087E-06</v>
+        <v>9.942093056424366E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H20">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I20">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J20">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N20">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O20">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P20">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q20">
-        <v>4064.164166083495</v>
+        <v>1955.553183341592</v>
       </c>
       <c r="R20">
-        <v>36577.47749475146</v>
+        <v>17599.97865007433</v>
       </c>
       <c r="S20">
-        <v>0.1450162036091394</v>
+        <v>0.06313532214522152</v>
       </c>
       <c r="T20">
-        <v>0.1450162036091394</v>
+        <v>0.06313532214522154</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H21">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I21">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J21">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O21">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P21">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q21">
-        <v>253.6521758602987</v>
+        <v>135.8129989185387</v>
       </c>
       <c r="R21">
-        <v>2282.869582742688</v>
+        <v>1222.316990266848</v>
       </c>
       <c r="S21">
-        <v>0.009050735668462317</v>
+        <v>0.004384742645341171</v>
       </c>
       <c r="T21">
-        <v>0.009050735668462319</v>
+        <v>0.00438474264534117</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H22">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I22">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J22">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N22">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O22">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P22">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q22">
-        <v>269.9280759776975</v>
+        <v>357.7787633750228</v>
       </c>
       <c r="R22">
-        <v>2429.352683799277</v>
+        <v>3220.008870375206</v>
       </c>
       <c r="S22">
-        <v>0.009631487121625499</v>
+        <v>0.01155093999734772</v>
       </c>
       <c r="T22">
-        <v>0.009631487121625501</v>
+        <v>0.01155093999734772</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H23">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I23">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J23">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N23">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O23">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P23">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q23">
-        <v>1837.795336495804</v>
+        <v>780.394284245545</v>
       </c>
       <c r="R23">
-        <v>16540.15802846223</v>
+        <v>7023.548558209905</v>
       </c>
       <c r="S23">
-        <v>0.06557562436411853</v>
+        <v>0.02519514424657076</v>
       </c>
       <c r="T23">
-        <v>0.06557562436411854</v>
+        <v>0.02519514424657076</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H24">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I24">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J24">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N24">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O24">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P24">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q24">
-        <v>51.57695095285512</v>
+        <v>30.15359953138322</v>
       </c>
       <c r="R24">
-        <v>464.192558575696</v>
+        <v>271.382395782449</v>
       </c>
       <c r="S24">
-        <v>0.001840352238557721</v>
+        <v>0.0009735133958355434</v>
       </c>
       <c r="T24">
-        <v>0.001840352238557721</v>
+        <v>0.0009735133958355436</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>86.74265433333335</v>
+        <v>46.44462433333333</v>
       </c>
       <c r="H25">
-        <v>260.227963</v>
+        <v>139.333873</v>
       </c>
       <c r="I25">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="J25">
-        <v>0.2320030707629402</v>
+        <v>0.1058992524650125</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N25">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O25">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P25">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q25">
-        <v>24.90543525531423</v>
+        <v>20.43013875945389</v>
       </c>
       <c r="R25">
-        <v>224.148917297828</v>
+        <v>183.871248835085</v>
       </c>
       <c r="S25">
-        <v>0.0008886677610366704</v>
+        <v>0.0006595900346957667</v>
       </c>
       <c r="T25">
-        <v>0.0008886677610366705</v>
+        <v>0.0006595900346957666</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H26">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I26">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J26">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N26">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O26">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P26">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q26">
-        <v>37.58598052879066</v>
+        <v>51.58135167810334</v>
       </c>
       <c r="R26">
-        <v>338.273824759116</v>
+        <v>464.2321651029301</v>
       </c>
       <c r="S26">
-        <v>0.001341130914616769</v>
+        <v>0.001665311525467298</v>
       </c>
       <c r="T26">
-        <v>0.001341130914616769</v>
+        <v>0.001665311525467298</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H27">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I27">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J27">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O27">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P27">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q27">
-        <v>2.345812165397333</v>
+        <v>3.582320398826667</v>
       </c>
       <c r="R27">
-        <v>21.112309488576</v>
+        <v>32.24088358944</v>
       </c>
       <c r="S27">
-        <v>8.370251808353429E-05</v>
+        <v>0.0001156557409606451</v>
       </c>
       <c r="T27">
-        <v>8.37025180835343E-05</v>
+        <v>0.0001156557409606451</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H28">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I28">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J28">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N28">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O28">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P28">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q28">
-        <v>2.496334053761555</v>
+        <v>9.437080194908889</v>
       </c>
       <c r="R28">
-        <v>22.467006483854</v>
+        <v>84.93372175418001</v>
       </c>
       <c r="S28">
-        <v>8.907339187667962E-05</v>
+        <v>0.000304677522090069</v>
       </c>
       <c r="T28">
-        <v>8.907339187667964E-05</v>
+        <v>0.000304677522090069</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H29">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I29">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J29">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N29">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O29">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P29">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q29">
-        <v>16.99619821214045</v>
+        <v>20.58435043656889</v>
       </c>
       <c r="R29">
-        <v>152.965783909264</v>
+        <v>185.25915392912</v>
       </c>
       <c r="S29">
-        <v>0.0006064528989950289</v>
+        <v>0.000664568781372742</v>
       </c>
       <c r="T29">
-        <v>0.000606452898995029</v>
+        <v>0.0006645687813727422</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H30">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I30">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J30">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N30">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O30">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P30">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q30">
-        <v>0.4769911339768889</v>
+        <v>0.7953572600522223</v>
       </c>
       <c r="R30">
-        <v>4.292920205792</v>
+        <v>7.158215340470001</v>
       </c>
       <c r="S30">
-        <v>1.701984481379971E-05</v>
+        <v>2.567822612123063E-05</v>
       </c>
       <c r="T30">
-        <v>1.701984481379971E-05</v>
+        <v>2.567822612123063E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.8022086666666667</v>
+        <v>1.225063333333333</v>
       </c>
       <c r="H31">
-        <v>2.406626</v>
+        <v>3.67519</v>
       </c>
       <c r="I31">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="J31">
-        <v>0.002145598096919091</v>
+        <v>0.00279328970972399</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N31">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O31">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P31">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q31">
-        <v>0.2303290827617778</v>
+        <v>0.5388829008388889</v>
       </c>
       <c r="R31">
-        <v>2.072961744856</v>
+        <v>4.84994610755</v>
       </c>
       <c r="S31">
-        <v>8.218528533279253E-06</v>
+        <v>1.739791371200551E-05</v>
       </c>
       <c r="T31">
-        <v>8.218528533279254E-06</v>
+        <v>1.739791371200551E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H32">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I32">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J32">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N32">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O32">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P32">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q32">
-        <v>34.98753761808533</v>
+        <v>20.32362996174467</v>
       </c>
       <c r="R32">
-        <v>314.887838562768</v>
+        <v>182.912669655702</v>
       </c>
       <c r="S32">
-        <v>0.001248414107222471</v>
+        <v>0.0006561513824965044</v>
       </c>
       <c r="T32">
-        <v>0.001248414107222472</v>
+        <v>0.0006561513824965045</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H33">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I33">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J33">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O33">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P33">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q33">
-        <v>2.183638426538666</v>
+        <v>1.411474337557333</v>
       </c>
       <c r="R33">
-        <v>19.652745838848</v>
+        <v>12.703269038016</v>
       </c>
       <c r="S33">
-        <v>7.791588669431873E-05</v>
+        <v>4.556965658643974E-05</v>
       </c>
       <c r="T33">
-        <v>7.791588669431876E-05</v>
+        <v>4.556965658643974E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H34">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I34">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J34">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N34">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O34">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P34">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q34">
-        <v>2.323754239865778</v>
+        <v>3.718315235272445</v>
       </c>
       <c r="R34">
-        <v>20.913788158792</v>
+        <v>33.464837117452</v>
       </c>
       <c r="S34">
-        <v>8.291545425211386E-05</v>
+        <v>0.0001200463542572977</v>
       </c>
       <c r="T34">
-        <v>8.291545425211388E-05</v>
+        <v>0.0001200463542572977</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H35">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I35">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J35">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N35">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O35">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P35">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q35">
-        <v>15.82119492283022</v>
+        <v>8.110464492796446</v>
       </c>
       <c r="R35">
-        <v>142.390754305472</v>
+        <v>72.99418043516802</v>
       </c>
       <c r="S35">
-        <v>0.0005645268080988967</v>
+        <v>0.0002618475390299008</v>
       </c>
       <c r="T35">
-        <v>0.0005645268080988969</v>
+        <v>0.0002618475390299008</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H36">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I36">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J36">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N36">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O36">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P36">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q36">
-        <v>0.4440151622684445</v>
+        <v>0.3133796636731112</v>
       </c>
       <c r="R36">
-        <v>3.996136460416</v>
+        <v>2.820416973058001</v>
       </c>
       <c r="S36">
-        <v>1.584320675685593E-05</v>
+        <v>1.011750853329106E-05</v>
       </c>
       <c r="T36">
-        <v>1.584320675685594E-05</v>
+        <v>1.011750853329106E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.7467493333333334</v>
+        <v>0.4826886666666667</v>
       </c>
       <c r="H37">
-        <v>2.240248</v>
+        <v>1.448066</v>
       </c>
       <c r="I37">
-        <v>0.00199726581754988</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="J37">
-        <v>0.001997265817549881</v>
+        <v>0.001100587413657846</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N37">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O37">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P37">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q37">
-        <v>0.2144056729208889</v>
+        <v>0.2123258951744445</v>
       </c>
       <c r="R37">
-        <v>1.929651056288</v>
+        <v>1.91093305657</v>
       </c>
       <c r="S37">
-        <v>7.650354525224019E-06</v>
+        <v>6.854972754412419E-06</v>
       </c>
       <c r="T37">
-        <v>7.65035452522402E-06</v>
+        <v>6.854972754412419E-06</v>
       </c>
     </row>
   </sheetData>
